--- a/Assets/06 Data/ExcelData/Ammo_Item_Table.xlsx
+++ b/Assets/06 Data/ExcelData/Ammo_Item_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genie\Desktop\덕코프\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyUnity\Duckov\Assets\06 Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2F3C06-1BF1-45A2-B216-621D619A18E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622D2CD0-6287-4CD7-A7B0-D0D8A24CB69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3E9BE2B3-753F-4CB8-8C74-169030718F3F}"/>
+    <workbookView xWindow="4755" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{3E9BE2B3-753F-4CB8-8C74-169030718F3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,26 +66,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>uint</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -114,9 +94,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bulletType</t>
-  </si>
-  <si>
     <t>탄환 종류</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -125,7 +102,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>weightValue</t>
+    <t>Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeightValue</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +575,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -590,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -602,27 +603,27 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>22</v>
@@ -630,25 +631,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -656,10 +657,10 @@
         <v>595</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
@@ -679,10 +680,10 @@
         <v>622</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>

--- a/Assets/06 Data/ExcelData/Ammo_Item_Table.xlsx
+++ b/Assets/06 Data/ExcelData/Ammo_Item_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyUnity\Duckov\Assets\06 Data\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genie\Desktop\duckov-clone\Assets\06 Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622D2CD0-6287-4CD7-A7B0-D0D8A24CB69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040D0D6D-FA84-424F-B06F-E8FEB9BBBC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{3E9BE2B3-753F-4CB8-8C74-169030718F3F}"/>
+    <workbookView xWindow="3750" yWindow="9315" windowWidth="21600" windowHeight="11295" xr2:uid="{3E9BE2B3-753F-4CB8-8C74-169030718F3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>S-일반 탄약</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -127,6 +123,18 @@
   </si>
   <si>
     <t>WeightValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 등급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rarity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -572,64 +580,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB756C78-FD54-4FFC-B5B7-00C929C76554}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -640,66 +661,75 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>595</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>150</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.01</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>622</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>350</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.05</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G6" s="1"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/06 Data/ExcelData/Ammo_Item_Table.xlsx
+++ b/Assets/06 Data/ExcelData/Ammo_Item_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genie\Desktop\duckov-clone\Assets\06 Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040D0D6D-FA84-424F-B06F-E8FEB9BBBC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4812C49B-97E3-4CFB-BBDD-E18BAC112679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="9315" windowWidth="21600" windowHeight="11295" xr2:uid="{3E9BE2B3-753F-4CB8-8C74-169030718F3F}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{3E9BE2B3-753F-4CB8-8C74-169030718F3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>S-일반 탄약</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -130,11 +130,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>rarity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>일반</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rarity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 소지 스택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxStackSize</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -580,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB756C78-FD54-4FFC-B5B7-00C929C76554}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -595,10 +603,10 @@
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -623,13 +631,16 @@
       <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>16</v>
@@ -649,8 +660,11 @@
       <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -675,13 +689,16 @@
       <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>595</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -701,13 +718,16 @@
       <c r="H4" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>622</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -727,9 +747,37 @@
       <c r="H5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
